--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20025" windowHeight="7875"/>
@@ -111,21 +111,21 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Not Started</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,14 +133,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,7 +148,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF92D050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +156,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,6 +247,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,19 +559,19 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -570,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -590,7 +611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -610,7 +631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -627,10 +648,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -646,11 +667,11 @@
       <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -686,11 +707,11 @@
       <c r="E7" s="2">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -706,11 +727,11 @@
       <c r="E8" s="2">
         <v>21</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -726,11 +747,11 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -747,10 +768,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -778,7 +799,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -790,7 +811,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
